--- a/biology/Médecine/Canalopathie/Canalopathie.xlsx
+++ b/biology/Médecine/Canalopathie/Canalopathie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les canalopathies sont l'ensemble des maladies en rapport avec un dysfonctionnement des canaux ioniques membranaires.
 Ce terme nouveau est apparu grâce au progrès considérable permettant de relier des manifestations cliniques anciennes avec des anomalies de la structure des protéines par mutation du gène responsable de leur codage.
@@ -512,7 +524,9 @@
           <t>Introduction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les canaux ioniques sont des protéines qui traversent la membrane cellulaire et qui contrôlent de façon sélective le passage des ions à travers celle-ci. Les canaux ioniques contrôlent l'activité électrique cellulaire et sont donc impliqués dans chaque battement du cœur, dans chaque contraction musculaire et même dans chaque pensée et perception.
 Leurs fonctionnements entraînent des mouvements de charges électriques à travers la membrane cellulaire et modifient la polarité de celle-ci : 
@@ -547,7 +561,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Jusqu'en 1982, l'étude des bases physiologiques de l'activité électrique cellulaires était basée sur des modèles physiques, notamment l'étude des muscles striés des batraciens. Le clonage de la sous-unité alpha du récepteur de l'acétylcholine fut une étape majeure de la compréhension et de la découverte de l'ensemble des gènes codant le fonctionnement des canaux ioniques membranaires.
 En 1998, la découverte de la structure cristalline des canaux potassiques bactériens permit de comprendre les différentes altérations pouvant conduire à une anomalies de fonctionnement.
@@ -580,7 +596,9 @@
           <t>Les gènes codant le fonctionnement des canaux ioniques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gène SCN4A, situé sur l'exon 22 ou 24 du chromosome 17 humain, code la sous-unité principale alpha du canal sodique voltage dépendant.
 </t>
@@ -613,20 +631,142 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Canalopathies en rapport avec un trouble du fonctionnement des canaux sodiques
-Musculaires
-Les canalopathies musculaires sont en rapport avec la mutation du gène SCN4A (en) 603967 situé sur le locus q23.1-q25.3 du chromosome 17 
-Cardiaques
-Les canalopathies cardiaques sont en rapport avec la mutation du gène SCN5A situé sur le locus p21 du chromosome 3
-Cérébrales
-Les canalopathies cérébrales sont en rapport avec plusieurs mutations
+          <t>Canalopathies en rapport avec un trouble du fonctionnement des canaux sodiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Musculaires</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les canalopathies musculaires sont en rapport avec la mutation du gène SCN4A (en) 603967 situé sur le locus q23.1-q25.3 du chromosome 17 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Canalopathie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Canalopathie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les différentes canalopathies</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Canalopathies en rapport avec un trouble du fonctionnement des canaux sodiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cardiaques</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les canalopathies cardiaques sont en rapport avec la mutation du gène SCN5A situé sur le locus p21 du chromosome 3
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Canalopathie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Canalopathie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les différentes canalopathies</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Canalopathies en rapport avec un trouble du fonctionnement des canaux sodiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Cérébrales</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les canalopathies cérébrales sont en rapport avec plusieurs mutations
 La mutation des gènes SCN1A (en) 182389, SCN2A (en) 182390 situés sur le locus q24 et q23-q24.3 du chromosome 2
-La mutation du gène SCN1B (en) 600235 situé sur le locus p21 du chromosome 3
-Nerveuses
-Les canalopathies cardiaques sont en rapport avec la mutation du gène SCN9A (en) 603415 situé sur le chromosome 2
-Canalopathies en rapport avec un trouble du fonctionnement des canaux calciques
-Canalopathies en rapport avec un trouble du fonctionnement des canaux potassiques
-Canalopathies en rapport avec un trouble du fonctionnement des canaux chlorures</t>
+La mutation du gène SCN1B (en) 600235 situé sur le locus p21 du chromosome 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Canalopathie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Canalopathie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Les différentes canalopathies</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Canalopathies en rapport avec un trouble du fonctionnement des canaux sodiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Nerveuses</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les canalopathies cardiaques sont en rapport avec la mutation du gène SCN9A (en) 603415 situé sur le chromosome 2
+</t>
         </is>
       </c>
     </row>
